--- a/data/SED.xlsx
+++ b/data/SED.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="352">
   <si>
     <t>Liên Hệ</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>SED</t>
@@ -27636,7 +27636,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB1F9-64B2-F64B-91A6-B0AAFF7D49C4}">
-  <dimension ref="A1:AC176"/>
+  <dimension ref="A1:AD176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -27673,6 +27673,7 @@
     <col min="27" max="27" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="16.7890625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="16.7890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27803,6 +27804,9 @@
       <c r="AC11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AD11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
@@ -27889,6 +27893,9 @@
       <c r="AC12" s="25" t="n">
         <v>1.04577160103E11</v>
       </c>
+      <c r="AD12" s="25" t="n">
+        <v>1.14910188381E11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
@@ -27975,6 +27982,9 @@
       <c r="AC13" s="25" t="n">
         <v>5.56478236E8</v>
       </c>
+      <c r="AD13" s="25" t="n">
+        <v>1.108218178E9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
@@ -28061,6 +28071,9 @@
       <c r="AC14" s="25" t="n">
         <v>8.4020681867E10</v>
       </c>
+      <c r="AD14" s="25" t="n">
+        <v>5.4801970203E10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
@@ -28147,6 +28160,9 @@
       <c r="AC15" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD15" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
@@ -28233,6 +28249,9 @@
       <c r="AC16" s="25" t="n">
         <v>2.0E10</v>
       </c>
+      <c r="AD16" s="25" t="n">
+        <v>5.9E10</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
@@ -28319,6 +28338,9 @@
       <c r="AC17" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD17" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
@@ -28405,6 +28427,9 @@
       <c r="AC18" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD18" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="26" t="s">
@@ -28491,6 +28516,9 @@
       <c r="AC19" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD19" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="s">
@@ -28577,6 +28605,9 @@
       <c r="AC20" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD20" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="s">
@@ -28663,6 +28694,9 @@
       <c r="AC21" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD21" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="26" t="s">
@@ -28749,6 +28783,9 @@
       <c r="AC22" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD22" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
@@ -28835,6 +28872,9 @@
       <c r="AC23" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD23" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
@@ -28921,6 +28961,9 @@
       <c r="AC24" s="25" t="n">
         <v>1.541025779E9</v>
       </c>
+      <c r="AD24" s="25" t="n">
+        <v>1.614500849E9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="26" t="s">
@@ -29007,6 +29050,9 @@
       <c r="AC25" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD25" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="26" t="s">
@@ -29093,6 +29139,9 @@
       <c r="AC26" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD26" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="26" t="s">
@@ -29179,6 +29228,9 @@
       <c r="AC27" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD27" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="26" t="s">
@@ -29265,6 +29317,9 @@
       <c r="AC28" s="25" t="n">
         <v>1.541025779E9</v>
       </c>
+      <c r="AD28" s="25" t="n">
+        <v>1.614500849E9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="28" t="s">
@@ -29351,6 +29406,9 @@
       <c r="AC29" s="25" t="n">
         <v>3.26047783022E11</v>
       </c>
+      <c r="AD29" s="25" t="n">
+        <v>3.22912574949E11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="26" t="s">
@@ -29437,6 +29495,9 @@
       <c r="AC30" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD30" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="26" t="s">
@@ -29523,6 +29584,9 @@
       <c r="AC31" s="25" t="n">
         <v>1.7843229631E10</v>
       </c>
+      <c r="AD31" s="25" t="n">
+        <v>2.5284358836E10</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="26" t="s">
@@ -29609,6 +29673,9 @@
       <c r="AC32" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD32" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="26" t="s">
@@ -29695,6 +29762,9 @@
       <c r="AC33" s="25" t="n">
         <v>6.435101288E9</v>
       </c>
+      <c r="AD33" s="25" t="n">
+        <v>5.691546375E9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="26" t="s">
@@ -29781,6 +29851,9 @@
       <c r="AC34" s="25" t="n">
         <v>8.8417944556E10</v>
       </c>
+      <c r="AD34" s="25" t="n">
+        <v>6.6932058493E10</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="26" t="s">
@@ -29867,6 +29940,9 @@
       <c r="AC35" s="25" t="n">
         <v>2.13351507547E11</v>
       </c>
+      <c r="AD35" s="25" t="n">
+        <v>2.25004611245E11</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="26" t="s">
@@ -29953,6 +30029,9 @@
       <c r="AC36" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD36" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="26" t="s">
@@ -30039,6 +30118,9 @@
       <c r="AC37" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD37" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="26" t="s">
@@ -30125,6 +30207,9 @@
       <c r="AC38" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD38" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
@@ -30211,6 +30296,9 @@
       <c r="AC39" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD39" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="26" t="s">
@@ -30297,6 +30385,9 @@
       <c r="AC40" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD40" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="26" t="s">
@@ -30383,6 +30474,9 @@
       <c r="AC41" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD41" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="26" t="s">
@@ -30469,6 +30563,9 @@
       <c r="AC42" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD42" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="26" t="s">
@@ -30555,6 +30652,9 @@
       <c r="AC43" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD43" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="28" t="s">
@@ -30641,6 +30741,9 @@
       <c r="AC44" s="25" t="n">
         <v>2.2222369898E10</v>
       </c>
+      <c r="AD44" s="25" t="n">
+        <v>2.2222369898E10</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
@@ -30727,6 +30830,9 @@
       <c r="AC45" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD45" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
@@ -30813,6 +30919,9 @@
       <c r="AC46" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD46" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
@@ -30899,6 +31008,9 @@
       <c r="AC47" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD47" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="26" t="s">
@@ -30985,6 +31097,9 @@
       <c r="AC48" s="25" t="n">
         <v>2.2222369898E10</v>
       </c>
+      <c r="AD48" s="25" t="n">
+        <v>2.2222369898E10</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="28" t="s">
@@ -31071,6 +31186,9 @@
       <c r="AC49" s="25" t="n">
         <v>7.8604311297E10</v>
       </c>
+      <c r="AD49" s="25" t="n">
+        <v>7.8604311297E10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="26" t="s">
@@ -31157,6 +31275,9 @@
       <c r="AC50" s="25" t="n">
         <v>7.8604311297E10</v>
       </c>
+      <c r="AD50" s="25" t="n">
+        <v>7.8604311297E10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="26" t="s">
@@ -31243,6 +31364,9 @@
       <c r="AC51" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD51" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="26" t="s">
@@ -31329,6 +31453,9 @@
       <c r="AC52" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD52" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="28" t="s">
@@ -31415,6 +31542,9 @@
       <c r="AC53" s="25" t="n">
         <v>2.5779259671E10</v>
       </c>
+      <c r="AD53" s="25" t="n">
+        <v>2.7730514764E10</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="26" t="s">
@@ -31501,6 +31631,9 @@
       <c r="AC54" s="25" t="n">
         <v>2.3828004578E10</v>
       </c>
+      <c r="AD54" s="25" t="n">
+        <v>2.3828004578E10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="26" t="s">
@@ -31587,6 +31720,9 @@
       <c r="AC55" s="25" t="n">
         <v>1.951255093E9</v>
       </c>
+      <c r="AD55" s="25" t="n">
+        <v>3.902510186E9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
@@ -31673,6 +31809,9 @@
       <c r="AC56" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD56" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="28" t="s">
@@ -31759,6 +31898,9 @@
       <c r="AC57" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD57" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="26" t="s">
@@ -31845,6 +31987,9 @@
       <c r="AC58" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD58" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
@@ -31931,6 +32076,9 @@
       <c r="AC59" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD59" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="26" t="s">
@@ -32017,6 +32165,9 @@
       <c r="AC60" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD60" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="28" t="s">
@@ -32103,6 +32254,9 @@
       <c r="AC61" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD61" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="26" t="s">
@@ -32189,6 +32343,9 @@
       <c r="AC62" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD62" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="26" t="s">
@@ -32275,6 +32432,9 @@
       <c r="AC63" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD63" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="26" t="s">
@@ -32361,6 +32521,9 @@
       <c r="AC64" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD64" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="28" t="s">
@@ -32447,6 +32610,9 @@
       <c r="AC65" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD65" s="25" t="n">
+        <v>1.839737688E9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="26" t="s">
@@ -32533,6 +32699,9 @@
       <c r="AC66" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD66" s="25" t="n">
+        <v>1.839737688E9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="26" t="s">
@@ -32619,6 +32788,9 @@
       <c r="AC67" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD67" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="26" t="s">
@@ -32705,6 +32877,9 @@
       <c r="AC68" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD68" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="28" t="s">
@@ -32791,6 +32966,9 @@
       <c r="AC69" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD69" s="25" t="n">
+        <v>1.839737688E9</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="26" t="s">
@@ -32877,6 +33055,9 @@
       <c r="AC70" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD70" s="25" t="n">
+        <v>1.839737688E9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="26" t="s">
@@ -32963,6 +33144,9 @@
       <c r="AC71" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD71" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="26" t="s">
@@ -33049,6 +33233,9 @@
       <c r="AC72" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD72" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="28" t="s">
@@ -33135,6 +33322,9 @@
       <c r="AC73" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD73" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="26" t="s">
@@ -33221,6 +33411,9 @@
       <c r="AC74" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD74" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="26" t="s">
@@ -33307,6 +33500,9 @@
       <c r="AC75" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD75" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="26" t="s">
@@ -33393,6 +33589,9 @@
       <c r="AC76" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD76" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="26" t="s">
@@ -33479,6 +33678,9 @@
       <c r="AC77" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD77" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="26" t="s">
@@ -33565,6 +33767,9 @@
       <c r="AC78" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD78" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="28" t="s">
@@ -33651,6 +33856,9 @@
       <c r="AC79" s="25" t="n">
         <v>7.593439246E10</v>
       </c>
+      <c r="AD79" s="25" t="n">
+        <v>5.6307333427E10</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="26" t="s">
@@ -33737,6 +33945,9 @@
       <c r="AC80" s="25" t="n">
         <v>7.593439246E10</v>
       </c>
+      <c r="AD80" s="25" t="n">
+        <v>5.6307333427E10</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="26" t="s">
@@ -33823,6 +34034,9 @@
       <c r="AC81" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD81" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="28" t="s">
@@ -33909,6 +34123,9 @@
       <c r="AC82" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD82" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="26" t="s">
@@ -33995,6 +34212,9 @@
       <c r="AC83" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD83" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="26" t="s">
@@ -34081,6 +34301,9 @@
       <c r="AC84" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD84" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="26" t="s">
@@ -34167,6 +34390,9 @@
       <c r="AC85" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD85" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="28" t="s">
@@ -34253,6 +34479,9 @@
       <c r="AC86" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD86" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="26" t="s">
@@ -34339,6 +34568,9 @@
       <c r="AC87" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD87" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="26" t="s">
@@ -34425,6 +34657,9 @@
       <c r="AC88" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD88" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="26" t="s">
@@ -34511,6 +34746,9 @@
       <c r="AC89" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD89" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="28" t="s">
@@ -34597,6 +34835,9 @@
       <c r="AC90" s="25" t="n">
         <v>7.427054296E9</v>
       </c>
+      <c r="AD90" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="26" t="s">
@@ -34683,6 +34924,9 @@
       <c r="AC91" s="25" t="n">
         <v>3.52733084E8</v>
       </c>
+      <c r="AD91" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="26" t="s">
@@ -34769,6 +35013,9 @@
       <c r="AC92" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD92" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="26" t="s">
@@ -34855,6 +35102,9 @@
       <c r="AC93" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD93" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="26" t="s">
@@ -34941,6 +35191,9 @@
       <c r="AC94" s="25" t="n">
         <v>7.074321212E9</v>
       </c>
+      <c r="AD94" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="26" t="s">
@@ -35027,6 +35280,9 @@
       <c r="AC95" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD95" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="26" t="s">
@@ -35113,6 +35369,9 @@
       <c r="AC96" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD96" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="26" t="s">
@@ -35199,6 +35458,9 @@
       <c r="AC97" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD97" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="26" t="s">
@@ -35285,6 +35547,9 @@
       <c r="AC98" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD98" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="26" t="s">
@@ -35371,6 +35636,9 @@
       <c r="AC99" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD99" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="28" t="s">
@@ -35457,6 +35725,9 @@
       <c r="AC100" s="25" t="n">
         <v>1.22590562275E11</v>
       </c>
+      <c r="AD100" s="25" t="n">
+        <v>9.1483310997E10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="26" t="s">
@@ -35543,6 +35814,9 @@
       <c r="AC101" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD101" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="26" t="s">
@@ -35629,6 +35903,9 @@
       <c r="AC102" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD102" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="26" t="s">
@@ -35715,6 +35992,9 @@
       <c r="AC103" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD103" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="26" t="s">
@@ -35801,6 +36081,9 @@
       <c r="AC104" s="25" t="n">
         <v>1.22590562275E11</v>
       </c>
+      <c r="AD104" s="25" t="n">
+        <v>9.1483310997E10</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="28" t="s">
@@ -35887,6 +36170,9 @@
       <c r="AC105" s="25" t="n">
         <v>6.735795279E9</v>
       </c>
+      <c r="AD105" s="25" t="n">
+        <v>7.524935094E9</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="26" t="s">
@@ -35973,6 +36259,9 @@
       <c r="AC106" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD106" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="26" t="s">
@@ -36059,6 +36348,9 @@
       <c r="AC107" s="25" t="n">
         <v>6.691152E7</v>
       </c>
+      <c r="AD107" s="25" t="n">
+        <v>7.147286E7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="26" t="s">
@@ -36145,6 +36437,9 @@
       <c r="AC108" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD108" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="26" t="s">
@@ -36231,6 +36526,9 @@
       <c r="AC109" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD109" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="26" t="s">
@@ -36317,6 +36615,9 @@
       <c r="AC110" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD110" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="26" t="s">
@@ -36403,6 +36704,9 @@
       <c r="AC111" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD111" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="26" t="s">
@@ -36489,6 +36793,9 @@
       <c r="AC112" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD112" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="26" t="s">
@@ -36575,6 +36882,9 @@
       <c r="AC113" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD113" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="26" t="s">
@@ -36661,6 +36971,9 @@
       <c r="AC114" s="25" t="n">
         <v>6.668883759E9</v>
       </c>
+      <c r="AD114" s="25" t="n">
+        <v>7.453462234E9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="28" t="s">
@@ -36747,6 +37060,9 @@
       <c r="AC115" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD115" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="26" t="s">
@@ -36833,6 +37149,9 @@
       <c r="AC116" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD116" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="26" t="s">
@@ -36919,6 +37238,9 @@
       <c r="AC117" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD117" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="26" t="s">
@@ -37005,6 +37327,9 @@
       <c r="AC118" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD118" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="26" t="s">
@@ -37091,6 +37416,9 @@
       <c r="AC119" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD119" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="26" t="s">
@@ -37177,6 +37505,9 @@
       <c r="AC120" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD120" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="28" t="s">
@@ -37263,6 +37594,9 @@
       <c r="AC121" s="25" t="n">
         <v>1.0E11</v>
       </c>
+      <c r="AD121" s="25" t="n">
+        <v>1.0E11</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="26" t="s">
@@ -37349,6 +37683,9 @@
       <c r="AC122" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD122" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="26" t="s">
@@ -37435,6 +37772,9 @@
       <c r="AC123" s="25" t="n">
         <v>1.0E11</v>
       </c>
+      <c r="AD123" s="25" t="n">
+        <v>1.0E11</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="28" t="s">
@@ -37521,6 +37861,9 @@
       <c r="AC124" s="25" t="n">
         <v>6.75446140123E11</v>
       </c>
+      <c r="AD124" s="25" t="n">
+        <v>2.69475806419E11</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="26" t="s">
@@ -37607,6 +37950,9 @@
       <c r="AC125" s="25" t="n">
         <v>6.75446140123E11</v>
       </c>
+      <c r="AD125" s="25" t="n">
+        <v>2.67115851814E11</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="26" t="s">
@@ -37693,6 +38039,9 @@
       <c r="AC126" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD126" s="25" t="n">
+        <v>2.359954605E9</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="26" t="s">
@@ -37779,6 +38128,9 @@
       <c r="AC127" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD127" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="28" t="s">
@@ -37865,6 +38217,9 @@
       <c r="AC128" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD128" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="26" t="s">
@@ -37951,6 +38306,9 @@
       <c r="AC129" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD129" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="26" t="s">
@@ -38037,6 +38395,9 @@
       <c r="AC130" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD130" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="26" t="s">
@@ -38123,6 +38484,9 @@
       <c r="AC131" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD131" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="26" t="s">
@@ -38209,6 +38573,9 @@
       <c r="AC132" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD132" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="26" t="s">
@@ -38295,6 +38662,9 @@
       <c r="AC133" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD133" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="26" t="s">
@@ -38381,6 +38751,9 @@
       <c r="AC134" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD134" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="28" t="s">
@@ -38467,6 +38840,9 @@
       <c r="AC135" s="25" t="n">
         <v>5.10890479712E11</v>
       </c>
+      <c r="AD135" s="25" t="n">
+        <v>2.15257790403E11</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="26" t="s">
@@ -38553,6 +38929,9 @@
       <c r="AC136" s="25" t="n">
         <v>3.73451550329E11</v>
       </c>
+      <c r="AD136" s="25" t="n">
+        <v>2.15257790403E11</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="26" t="s">
@@ -38639,6 +39018,9 @@
       <c r="AC137" s="25" t="n">
         <v>1.35893734879E11</v>
       </c>
+      <c r="AD137" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="26" t="s">
@@ -38725,6 +39107,9 @@
       <c r="AC138" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD138" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="26" t="s">
@@ -38811,6 +39196,9 @@
       <c r="AC139" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD139" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="26" t="s">
@@ -38897,6 +39285,9 @@
       <c r="AC140" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD140" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="26" t="s">
@@ -38983,6 +39374,9 @@
       <c r="AC141" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD141" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="26" t="s">
@@ -39069,6 +39463,9 @@
       <c r="AC142" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD142" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="26" t="s">
@@ -39155,6 +39552,9 @@
       <c r="AC143" s="25" t="n">
         <v>1.545194504E9</v>
       </c>
+      <c r="AD143" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="28" t="s">
@@ -39241,6 +39641,9 @@
       <c r="AC144" s="25" t="n">
         <v>4.26198054E8</v>
       </c>
+      <c r="AD144" s="25" t="n">
+        <v>3.81533482E8</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="26" t="s">
@@ -39327,6 +39730,9 @@
       <c r="AC145" s="25" t="n">
         <v>2.92003054E8</v>
       </c>
+      <c r="AD145" s="25" t="n">
+        <v>3.81533482E8</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="26" t="s">
@@ -39413,6 +39819,9 @@
       <c r="AC146" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD146" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="26" t="s">
@@ -39499,6 +39908,9 @@
       <c r="AC147" s="25" t="n">
         <v>9.24E7</v>
       </c>
+      <c r="AD147" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="26" t="s">
@@ -39585,6 +39997,9 @@
       <c r="AC148" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD148" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="26" t="s">
@@ -39671,6 +40086,9 @@
       <c r="AC149" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD149" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="26" t="s">
@@ -39757,6 +40175,9 @@
       <c r="AC150" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD150" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="26" t="s">
@@ -39843,6 +40264,9 @@
       <c r="AC151" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD151" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="26" t="s">
@@ -39929,6 +40353,9 @@
       <c r="AC152" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD152" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="26" t="s">
@@ -40015,6 +40442,9 @@
       <c r="AC153" s="25" t="n">
         <v>4.1795E7</v>
       </c>
+      <c r="AD153" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="28" t="s">
@@ -40101,6 +40531,9 @@
       <c r="AC154" s="25" t="n">
         <v>1.560199238E9</v>
       </c>
+      <c r="AD154" s="25" t="n">
+        <v>6.37407959E8</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="26" t="s">
@@ -40187,6 +40620,9 @@
       <c r="AC155" s="25" t="n">
         <v>1.238779159E9</v>
       </c>
+      <c r="AD155" s="25" t="n">
+        <v>6.37407959E8</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="26" t="s">
@@ -40273,6 +40709,9 @@
       <c r="AC156" s="25" t="n">
         <v>3.21420079E8</v>
       </c>
+      <c r="AD156" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="26" t="s">
@@ -40359,6 +40798,9 @@
       <c r="AC157" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD157" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="26" t="s">
@@ -40445,6 +40887,9 @@
       <c r="AC158" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD158" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="26" t="s">
@@ -40531,6 +40976,9 @@
       <c r="AC159" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD159" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="26" t="s">
@@ -40617,6 +41065,9 @@
       <c r="AC160" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD160" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="26" t="s">
@@ -40703,6 +41154,9 @@
       <c r="AC161" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD161" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="26" t="s">
@@ -40789,6 +41243,9 @@
       <c r="AC162" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD162" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="28" t="s">
@@ -40875,6 +41332,9 @@
       <c r="AC163" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD163" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="26" t="s">
@@ -40961,6 +41421,9 @@
       <c r="AC164" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD164" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="26" t="s">
@@ -41047,6 +41510,9 @@
       <c r="AC165" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD165" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="26" t="s">
@@ -41133,6 +41599,9 @@
       <c r="AC166" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD166" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="26" t="s">
@@ -41219,6 +41688,9 @@
       <c r="AC167" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AD167" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="26" t="s">
@@ -41303,6 +41775,9 @@
         <v>0.0</v>
       </c>
       <c r="AC168" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD168" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -41344,7 +41819,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="H10:AC10"/>
+    <mergeCell ref="H10:AD10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A174" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{D6386FB0-752A-884E-829A-45A876D98EB2}"/>

--- a/data/SED.xlsx
+++ b/data/SED.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>SED</t>

--- a/data/SED.xlsx
+++ b/data/SED.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>SED</t>

--- a/data/SED.xlsx
+++ b/data/SED.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>SED</t>
